--- a/medicine/Sexualité et sexologie/Pink_Box__Inside_Japan's_Sex_Clubs/Pink_Box__Inside_Japan's_Sex_Clubs.xlsx
+++ b/medicine/Sexualité et sexologie/Pink_Box__Inside_Japan's_Sex_Clubs/Pink_Box__Inside_Japan's_Sex_Clubs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pink_Box:_Inside_Japan%27s_Sex_Clubs</t>
+          <t>Pink_Box:_Inside_Japan's_Sex_Clubs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pink Box est un album de la photojournaliste Joan Sinclair, retraçant son exploration du monde secret de la prostitution au Japon (fuzoku)[1].
+Pink Box est un album de la photojournaliste Joan Sinclair, retraçant son exploration du monde secret de la prostitution au Japon (fuzoku).
 James Farrer, un sociologue, a participé à cette enquête en essayant de « situer les images dans le contexte de la culture japonaise contemporaine ».
-Sinclair, qui est avocate, explique avoir été amenée à écrire le livre par un commentaire qu'elle a entendu dix ans plus tôt, quand elle a passé une année à enseigner l'anglais au Japon[2],[3],[4].
+Sinclair, qui est avocate, explique avoir été amenée à écrire le livre par un commentaire qu'elle a entendu dix ans plus tôt, quand elle a passé une année à enseigner l'anglais au Japon.
 Sinclair décrit ses rencontres et comment elle a surmonté les difficultés pour rechercher et accéder aux clubs, habituellement réservés aux clients nés japonais.
 </t>
         </is>
